--- a/classification/droptc/message/neo-bert/unfreeze/87212562/prediction.xlsx
+++ b/classification/droptc/message/neo-bert/unfreeze/87212562/prediction.xlsx
@@ -505,12 +505,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 1]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation', 'SoftwareFault']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -640,12 +640,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 1, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Normal', 'RegulationViolation']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['ParamViolation']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1126,12 +1126,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -1180,12 +1180,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1396,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1423,12 +1423,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1882,12 +1882,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['CommunicationIssue']</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2017,12 +2017,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2071,12 +2071,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -3610,12 +3610,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 1, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['Normal', 'RegulationViolation']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>

--- a/classification/droptc/message/neo-bert/unfreeze/87212562/prediction.xlsx
+++ b/classification/droptc/message/neo-bert/unfreeze/87212562/prediction.xlsx
@@ -721,12 +721,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
@@ -748,12 +748,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -829,12 +829,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -1099,12 +1099,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1153,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1261,12 +1261,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1450,12 +1450,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -1936,12 +1936,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['HardwareFault']</t>
         </is>
       </c>
     </row>
@@ -1990,12 +1990,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2287,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'ParamViolation']</t>
         </is>
       </c>
     </row>
@@ -2449,12 +2449,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2665,12 +2665,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'SurroundingEnvironment']</t>
         </is>
       </c>
     </row>
@@ -2908,12 +2908,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>['Normal', 'HardwareFault', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3043,12 +3043,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -3313,12 +3313,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 1, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>['Normal', 'CommunicationIssue']</t>
+          <t>['Normal']</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>['Normal', 'SurroundingEnvironment', 'SoftwareFault']</t>
         </is>
       </c>
     </row>
@@ -3610,12 +3610,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>['Normal', 'RegulationViolation']</t>
         </is>
       </c>
     </row>
